--- a/AAII_Financials/Yearly/GS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GS_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>GS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>54912000</v>
+      </c>
+      <c r="E8" s="3">
         <v>53182000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43485000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38032000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39395000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40085000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40874000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41664000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36793000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20628000</v>
+      </c>
+      <c r="E9" s="3">
         <v>19112000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13057000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9927000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7964000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8058000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9009000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9709000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10445000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34284000</v>
+      </c>
+      <c r="E10" s="3">
         <v>34070000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30428000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28105000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31431000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32027000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31865000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31955000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26348000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,54 +905,60 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>103000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>363000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>235000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>417000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>454000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1328000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1152000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>998000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>910000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>975000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1099000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1328000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1425000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44329000</v>
+      </c>
+      <c r="E17" s="3">
         <v>40701000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32353000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27728000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30617000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27728000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29137000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30457000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30624000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10583000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12481000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11132000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10304000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8778000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12357000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11737000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11207000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6169000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,8 +1049,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1046,39 +1079,45 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12287000</v>
+      </c>
+      <c r="E21" s="3">
         <v>13809000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12284000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11302000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9769000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13694000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13059000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8038000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10583000</v>
+      </c>
+      <c r="E23" s="3">
         <v>12481000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11132000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10304000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8778000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12357000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11737000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11207000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6169000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2117000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2509000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2446000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2906000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2695000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3880000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3697000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3732000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1727000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8466000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9972000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8686000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7398000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6083000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8477000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8040000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7475000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4442000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7897000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9373000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8085000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7087000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5568000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8077000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7726000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7292000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2510000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>487000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-4400000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,9 +1442,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,39 +1475,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7897000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9860000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3685000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7087000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5568000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8077000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7726000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7292000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2510000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7897000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9860000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3685000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7087000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5568000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8077000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7726000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7292000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2510000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>133546000</v>
+      </c>
+      <c r="E41" s="3">
         <v>130547000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>110051000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121711000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>113003000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>96196000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98364000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72669000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56008000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,39 +1708,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>77003000</v>
+      </c>
+      <c r="E43" s="3">
         <v>82900000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>87886000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69371000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>77191000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>97635000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>101159000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>91354000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74465000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>750541000</v>
+      </c>
+      <c r="E47" s="3">
         <v>645019000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>644814000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>588043000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>593724000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>576210000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>630736000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>602819000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>620210000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24246000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18317000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15094000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12070000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9956000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9344000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9196000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8217000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8697000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4837000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4082000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4038000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4095000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4148000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4160000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4376000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5099000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5468000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2795000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2356000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4362000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5550000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5548000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5181000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5241000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55291000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>69281000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>992968000</v>
+      </c>
+      <c r="E54" s="3">
         <v>931796000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>916776000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>860165000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>861395000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>855842000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>911507000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>938555000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>923225000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,98 +2137,108 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>174817000</v>
+      </c>
+      <c r="E57" s="3">
         <v>180235000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>178169000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>188455000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>210362000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>213572000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>204765000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>194485000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>198292000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>287037000</v>
+        <v>378242000</v>
       </c>
       <c r="E58" s="3">
-        <v>285140000</v>
+        <v>298845000</v>
       </c>
       <c r="F58" s="3">
-        <v>248297000</v>
+        <v>299933000</v>
       </c>
       <c r="G58" s="3">
-        <v>240608000</v>
+        <v>255821000</v>
       </c>
       <c r="H58" s="3">
-        <v>231194000</v>
+        <v>244222000</v>
       </c>
       <c r="I58" s="3">
-        <v>297571000</v>
+        <v>236764000</v>
       </c>
       <c r="J58" s="3">
+        <v>316316000</v>
+      </c>
+      <c r="K58" s="3">
         <v>309280000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>288834000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12221000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9698000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10761000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8975000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9429000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14652000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15031000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30007000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10342000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,56 +2266,62 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>219158000</v>
+      </c>
+      <c r="E61" s="3">
         <v>236027000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>227579000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>197491000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>185942000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>174551000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>168489000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>176270000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>181724000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E62" s="3">
         <v>344000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>606000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>592000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>561000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2187,9 +2332,12 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>902703000</v>
+      </c>
+      <c r="E66" s="3">
         <v>841611000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>834533000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>773272000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>774667000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>773045000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>833040000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>862839000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>852846000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2391,29 +2558,32 @@
         <v>11203000</v>
       </c>
       <c r="E70" s="3">
+        <v>11203000</v>
+      </c>
+      <c r="F70" s="3">
         <v>11853000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>11203000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>11200000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>9200000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>7200000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>6200000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3100000</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>106465000</v>
+      </c>
+      <c r="E72" s="3">
         <v>100100000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>91519000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>89039000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>83386000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>78984000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>71961000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>65223000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58834000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>79062000</v>
+      </c>
+      <c r="E76" s="3">
         <v>78982000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>70390000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75690000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75528000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>73597000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71267000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69516000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67279000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7897000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9860000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3685000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7087000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5568000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8077000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7726000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7292000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2510000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1328000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1152000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>998000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>991000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1337000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1322000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1869000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20421000</v>
+        <v>23868000</v>
       </c>
       <c r="E89" s="3">
-        <v>-18227000</v>
+        <v>16564000</v>
       </c>
       <c r="F89" s="3">
+        <v>-20489000</v>
+      </c>
+      <c r="G89" s="3">
         <v>6494000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9481000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7932000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4543000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12879000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22501000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8443000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7982000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3184000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2865000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1833000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-678000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-706000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-961000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1184000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22677000</v>
+        <v>-24236000</v>
       </c>
       <c r="E94" s="3">
-        <v>-28639000</v>
+        <v>-18820000</v>
       </c>
       <c r="F94" s="3">
+        <v>-26377000</v>
+      </c>
+      <c r="G94" s="3">
         <v>9675000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18574000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14909000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8728000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>629000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2104000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1810000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1769000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1706000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1681000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1454000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1302000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1086000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2771000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3367000</v>
+      </c>
+      <c r="E100" s="3">
         <v>22752000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>35206000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12103000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27507000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18999000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7351000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6910000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3232,43 +3480,49 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2999000</v>
+      </c>
+      <c r="E102" s="3">
         <v>20496000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11660000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28272000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18414000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3842000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11536000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16661000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16220000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>GS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56351000</v>
+      </c>
+      <c r="E8" s="3">
         <v>54912000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>53182000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43485000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38032000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39395000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40085000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40874000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41664000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36793000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13079000</v>
+      </c>
+      <c r="E9" s="3">
         <v>20628000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19112000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13057000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9927000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7964000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8058000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9009000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9709000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10445000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>43272000</v>
+      </c>
+      <c r="E10" s="3">
         <v>34284000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34070000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30428000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28105000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31431000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32027000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31865000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31955000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26348000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,14 +907,17 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>3098000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -908,57 +928,63 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>103000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>363000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>235000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>417000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>454000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1704000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1328000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1152000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>998000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>910000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>975000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1099000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1328000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1425000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43872000</v>
+      </c>
+      <c r="E17" s="3">
         <v>44329000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40701000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32353000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27728000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30617000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27728000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29137000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30457000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30624000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12479000</v>
+      </c>
+      <c r="E18" s="3">
         <v>10583000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12481000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11132000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10304000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8778000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12357000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11737000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11207000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6169000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,42 +1116,48 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14381000</v>
+      </c>
+      <c r="E21" s="3">
         <v>12287000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13809000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12284000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11302000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9769000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13694000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13059000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8038000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1188,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12479000</v>
+      </c>
+      <c r="E23" s="3">
         <v>10583000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12481000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11132000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10304000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8778000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12357000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11737000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11207000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6169000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3020000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2117000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2509000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2446000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2906000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2695000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3880000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3697000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3732000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1727000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9459000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8466000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9972000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8686000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7398000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6083000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8477000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8040000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7475000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4442000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8915000</v>
+      </c>
+      <c r="E27" s="3">
         <v>7897000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9373000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8085000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7087000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5568000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8077000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7726000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7292000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2510000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1404,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>487000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-4400000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1478,42 +1548,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8915000</v>
+      </c>
+      <c r="E33" s="3">
         <v>7897000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9860000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3685000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7087000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5568000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8077000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7726000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7292000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2510000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8915000</v>
+      </c>
+      <c r="E35" s="3">
         <v>7897000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9860000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3685000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7087000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5568000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8077000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7726000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7292000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2510000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>155842000</v>
+      </c>
+      <c r="E41" s="3">
         <v>133546000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>130547000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>110051000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>121711000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113003000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>96196000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98364000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72669000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56008000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,42 +1801,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>123969000</v>
+      </c>
+      <c r="E43" s="3">
         <v>77003000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82900000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>87886000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69371000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>77191000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>97635000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>101159000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>91354000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74465000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1909,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1945,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>849088000</v>
+      </c>
+      <c r="E47" s="3">
         <v>750541000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>645019000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>644814000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>588043000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>593724000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>576210000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>630736000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>602819000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>620210000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25427000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24246000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18317000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15094000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12070000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9956000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9344000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9196000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8217000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8697000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4962000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4837000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4082000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4038000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4095000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4148000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4160000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4376000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5099000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5468000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3740000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2795000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2356000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4362000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5550000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5548000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5181000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5241000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55291000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>69281000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1163030000</v>
+      </c>
+      <c r="E54" s="3">
         <v>992968000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>931796000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>916776000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>860165000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>861395000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>855842000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>911507000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>938555000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>923225000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,107 +2268,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>190658000</v>
+      </c>
+      <c r="E57" s="3">
         <v>174817000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>180235000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>178169000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>188455000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>210362000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>213572000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>204765000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>194485000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>198292000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>474242000</v>
+      </c>
+      <c r="E58" s="3">
         <v>378242000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>298845000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>299933000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>255821000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>244222000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>236764000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>316316000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>309280000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>288834000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13334000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12221000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9698000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10761000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8975000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9429000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14652000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15031000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30007000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10342000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,62 +2409,68 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>226018000</v>
+      </c>
+      <c r="E61" s="3">
         <v>219158000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>236027000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>227579000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>197491000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>185942000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>174551000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>168489000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>176270000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>181724000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E62" s="3">
         <v>415000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>344000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>606000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>592000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>561000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2335,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1067100000</v>
+      </c>
+      <c r="E66" s="3">
         <v>902703000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>841611000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>834533000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>773272000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>774667000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>773045000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>833040000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>862839000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>852846000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,29 +2729,32 @@
         <v>11203000</v>
       </c>
       <c r="F70" s="3">
+        <v>11203000</v>
+      </c>
+      <c r="G70" s="3">
         <v>11853000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>11203000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>11200000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>9200000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>7200000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>6200000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3100000</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>112947000</v>
+      </c>
+      <c r="E72" s="3">
         <v>106465000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>100100000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>91519000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>89039000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>83386000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>78984000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>71961000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>65223000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>58834000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84729000</v>
+      </c>
+      <c r="E76" s="3">
         <v>79062000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>78982000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>70390000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75690000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75528000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>73597000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71267000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69516000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67279000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8915000</v>
+      </c>
+      <c r="E81" s="3">
         <v>7897000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9860000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3685000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7087000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5568000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8077000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7726000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7292000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2510000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1704000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1328000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1152000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>998000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>991000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1337000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1322000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1869000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13728000</v>
+      </c>
+      <c r="E89" s="3">
         <v>23868000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16564000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20489000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6494000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9481000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7932000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4543000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12879000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22501000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6309000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8443000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7982000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3184000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2865000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1833000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-678000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-706000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-961000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1184000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34356000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24236000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18820000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26377000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9675000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18574000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14909000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8728000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>629000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2336000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2104000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1810000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1769000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1706000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1681000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1454000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1302000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1086000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2771000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3666,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>70380000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3367000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22752000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>35206000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12103000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27507000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18999000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7351000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6910000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3483,46 +3732,52 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22296000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2999000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20496000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11660000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28272000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18414000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3842000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11536000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16661000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16220000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>GS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>64989000</v>
+      </c>
+      <c r="E8" s="3">
         <v>56351000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54912000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53182000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43485000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38032000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39395000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40085000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40874000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41664000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36793000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10360000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13079000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20628000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19112000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13057000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9927000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7964000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8058000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9009000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9709000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10445000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54629000</v>
+      </c>
+      <c r="E10" s="3">
         <v>43272000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34284000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34070000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30428000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28105000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31431000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32027000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31865000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31955000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26348000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,17 +926,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>3098000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -931,60 +950,66 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>103000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>363000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>235000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>417000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>454000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1902000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1704000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1328000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1152000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>998000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>910000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>975000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1099000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1328000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1425000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37945000</v>
+      </c>
+      <c r="E17" s="3">
         <v>43872000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44329000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40701000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32353000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27728000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30617000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27728000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29137000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30457000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30624000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27044000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12479000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10583000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12481000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11132000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10304000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8778000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12357000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11737000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11207000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6169000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,45 +1152,51 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29059000</v>
+      </c>
+      <c r="E21" s="3">
         <v>14381000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12287000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13809000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12284000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11302000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9769000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13694000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13059000</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8038000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,81 +1230,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27044000</v>
+      </c>
+      <c r="E23" s="3">
         <v>12479000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10583000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12481000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11132000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10304000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8778000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12357000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11737000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11207000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6169000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5409000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3020000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2117000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2509000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2446000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2906000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2695000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3880000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3697000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3732000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1727000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21635000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9459000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8466000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9972000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8686000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7398000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6083000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8477000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8040000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7475000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4442000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21151000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8915000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7897000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9373000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8085000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7087000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5568000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8077000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7726000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7292000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2510000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1419,14 +1479,14 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>487000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-4400000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1551,45 +1620,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21151000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8915000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7897000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9860000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3685000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7087000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5568000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8077000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7726000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7292000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2510000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21151000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8915000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7897000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9860000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3685000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7087000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5568000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8077000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7726000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7292000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2510000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>261036000</v>
+      </c>
+      <c r="E41" s="3">
         <v>155842000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>133546000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>130547000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>110051000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121711000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113003000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>96196000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98364000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72669000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56008000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,45 +1893,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>164187000</v>
+      </c>
+      <c r="E43" s="3">
         <v>123969000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>77003000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82900000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>87886000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>69371000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>77191000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>97635000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101159000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>91354000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74465000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1912,9 +2010,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,117 +2049,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>849088000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>750541000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>645019000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>644814000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>588043000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>593724000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>576210000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>630736000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>602819000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>620210000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20386000</v>
+      </c>
+      <c r="E48" s="3">
         <v>25427000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24246000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18317000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15094000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12070000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9956000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9344000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9196000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8217000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8697000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4703000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4962000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4837000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4082000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4038000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4095000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4148000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4160000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4376000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5099000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5468000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5291000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3740000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2795000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2356000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4362000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5550000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5548000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5181000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5241000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55291000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69281000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1463990000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1163030000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>992968000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>931796000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>916776000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>860165000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>861395000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>855842000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>911507000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>938555000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>923225000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,116 +2398,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>251931000</v>
+      </c>
+      <c r="E57" s="3">
         <v>190658000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>174817000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>180235000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>178169000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>188455000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>210362000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>213572000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>204765000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>194485000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>198292000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>632740000</v>
+      </c>
+      <c r="E58" s="3">
         <v>474242000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>378242000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>298845000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>299933000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>255821000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>244222000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>236764000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>316316000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>309280000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>288834000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15486000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13334000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12221000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9698000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10761000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8975000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9429000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14652000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15031000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30007000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10342000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,68 +2551,74 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>263466000</v>
+      </c>
+      <c r="E61" s="3">
         <v>226018000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>219158000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>236027000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>227579000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>197491000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>185942000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>174551000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>168489000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>176270000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>181724000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E62" s="3">
         <v>478000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>415000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>344000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>606000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>592000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>561000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1354060000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1067100000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>902703000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>841611000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>834533000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>773272000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>774667000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>773045000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>833040000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>862839000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>852846000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,14 +2880,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>11203000</v>
+        <v>10703000</v>
       </c>
       <c r="E70" s="3">
         <v>11203000</v>
@@ -2732,29 +2899,32 @@
         <v>11203000</v>
       </c>
       <c r="G70" s="3">
+        <v>11203000</v>
+      </c>
+      <c r="H70" s="3">
         <v>11853000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>11203000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>11200000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>9200000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>7200000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>6200000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3100000</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>131811000</v>
+      </c>
+      <c r="E72" s="3">
         <v>112947000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>106465000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>100100000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>91519000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>89039000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>83386000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78984000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>71961000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>65223000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>58834000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>99223000</v>
+      </c>
+      <c r="E76" s="3">
         <v>84729000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79062000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78982000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70390000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75690000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75528000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>73597000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71267000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69516000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67279000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21151000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8915000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7897000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9860000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3685000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7087000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5568000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8077000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7726000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7292000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2510000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1902000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1704000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1328000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1152000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>998000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>991000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1337000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1322000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1869000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>921000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13728000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23868000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16564000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20489000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6494000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9481000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7932000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4543000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12879000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22501000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4667000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6309000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8443000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7982000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3184000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2865000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1833000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-678000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-706000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-961000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1184000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30465000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34356000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24236000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18820000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26377000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9675000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18574000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14909000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8728000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>629000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2725000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2336000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2104000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1810000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1769000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1706000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1681000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1454000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1302000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1086000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2771000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3911,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>134738000</v>
+      </c>
+      <c r="E100" s="3">
         <v>70380000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3367000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22752000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>35206000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12103000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27507000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18999000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7351000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6910000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3735,49 +3983,55 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>105194000</v>
+      </c>
+      <c r="E102" s="3">
         <v>22296000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2999000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20496000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11660000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28272000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18414000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3842000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11536000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16661000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16220000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>GS</t>
   </si>
@@ -2062,22 +2062,22 @@
         <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>849088000</v>
+        <v>852048000</v>
       </c>
       <c r="F47" s="3">
-        <v>750541000</v>
+        <v>752609000</v>
       </c>
       <c r="G47" s="3">
-        <v>645019000</v>
+        <v>646548000</v>
       </c>
       <c r="H47" s="3">
-        <v>644814000</v>
+        <v>648542000</v>
       </c>
       <c r="I47" s="3">
-        <v>588043000</v>
+        <v>593593000</v>
       </c>
       <c r="J47" s="3">
-        <v>593724000</v>
+        <v>599272000</v>
       </c>
       <c r="K47" s="3">
         <v>576210000</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5291000</v>
+        <v>1431000</v>
       </c>
       <c r="E52" s="3">
-        <v>3740000</v>
+        <v>780000</v>
       </c>
       <c r="F52" s="3">
-        <v>2795000</v>
+        <v>727000</v>
       </c>
       <c r="G52" s="3">
-        <v>2356000</v>
+        <v>827000</v>
       </c>
       <c r="H52" s="3">
-        <v>4362000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5550000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5548000</v>
+        <v>634000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>5181000</v>

--- a/AAII_Financials/Yearly/GS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>GS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>68711000</v>
+      </c>
+      <c r="E8" s="3">
         <v>64989000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56351000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54912000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>53182000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43485000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38032000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39395000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40085000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40874000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41664000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36793000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26658000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10360000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13079000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20628000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19112000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13057000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9927000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7964000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8058000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9009000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9709000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10445000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42053000</v>
+      </c>
+      <c r="E10" s="3">
         <v>54629000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>43272000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34284000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34070000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30428000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28105000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31431000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32027000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31865000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31955000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26348000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,21 +945,24 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>3098000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -953,63 +972,69 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>103000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>363000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>235000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>417000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>454000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2015000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1902000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1704000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1328000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1152000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>998000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>910000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>975000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1099000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1328000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1425000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55225000</v>
+      </c>
+      <c r="E17" s="3">
         <v>37945000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43872000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44329000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40701000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32353000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27728000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30617000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27728000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29137000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30457000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30624000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13486000</v>
+      </c>
+      <c r="E18" s="3">
         <v>27044000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12479000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10583000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12481000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11132000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10304000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8778000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12357000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11737000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11207000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6169000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1149,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,48 +1188,54 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15941000</v>
+      </c>
+      <c r="E21" s="3">
         <v>29059000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14381000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12287000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13809000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12284000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11302000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9769000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13694000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13059000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>8038000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1233,87 +1272,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13486000</v>
+      </c>
+      <c r="E23" s="3">
         <v>27044000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12479000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10583000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12481000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11132000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10304000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8778000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12357000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11737000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11207000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6169000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5409000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3020000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2117000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2509000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2446000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2906000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2695000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3880000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3697000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3732000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1727000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11261000</v>
+      </c>
+      <c r="E26" s="3">
         <v>21635000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9459000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8466000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9972000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8686000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7398000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6083000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8477000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8040000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7475000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4442000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10764000</v>
+      </c>
+      <c r="E27" s="3">
         <v>21151000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8915000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7897000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9373000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8085000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7087000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5568000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8077000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7726000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7292000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2510000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,15 +1542,15 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>487000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-4400000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,9 +1650,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1623,48 +1692,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10764000</v>
+      </c>
+      <c r="E33" s="3">
         <v>21151000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8915000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7897000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9860000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3685000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7087000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5568000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8077000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7726000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7292000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2510000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10764000</v>
+      </c>
+      <c r="E35" s="3">
         <v>21151000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8915000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7897000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9860000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3685000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7087000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5568000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8077000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7726000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7292000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2510000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,47 +1904,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>241825000</v>
+      </c>
+      <c r="E41" s="3">
         <v>261036000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>155842000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>133546000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>130547000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>110051000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121711000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>113003000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96196000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98364000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72669000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56008000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,48 +1985,54 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138826000</v>
+      </c>
+      <c r="E43" s="3">
         <v>164187000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123969000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>77003000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82900000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>87886000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>69371000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>77191000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>97635000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>101159000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>91354000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74465000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,9 +2069,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2013,9 +2111,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2052,126 +2153,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>852048000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>752609000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>646548000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>648542000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>593593000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>599272000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>576210000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>630736000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>602819000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>620210000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19246000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20386000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25427000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24246000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18317000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15094000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12070000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9956000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9344000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9196000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8217000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8697000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8383000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4703000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4962000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4837000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4082000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4038000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4095000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4148000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4160000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4376000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5099000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5468000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1431000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>780000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>727000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>827000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>634000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>5181000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5241000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>55291000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>69281000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1441800000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1463990000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1163030000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>992968000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>931796000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>916776000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>860165000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>861395000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>855842000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>911507000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>938555000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>923225000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,125 +2528,135 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>262045000</v>
+      </c>
+      <c r="E57" s="3">
         <v>251931000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>190658000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>174817000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>180235000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>178169000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>188455000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>210362000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>213572000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>204765000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>194485000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>198292000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>595541000</v>
+      </c>
+      <c r="E58" s="3">
         <v>632740000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>474242000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>378242000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>298845000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>299933000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>255821000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>244222000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>236764000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>316316000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>309280000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>288834000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12048000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15486000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13334000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12221000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9698000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10761000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8975000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9429000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14652000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15031000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30007000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10342000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2554,75 +2693,81 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>254245000</v>
+      </c>
+      <c r="E61" s="3">
         <v>263466000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>226018000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>219158000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>236027000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>227579000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>197491000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>185942000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>174551000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>168489000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>176270000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>181724000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E62" s="3">
         <v>426000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>478000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>415000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>344000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>606000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>592000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>561000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1324610000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1354060000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1067100000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>902703000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>841611000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>834533000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>773272000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>774667000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>773045000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>833040000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>862839000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>852846000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2893,7 +3060,7 @@
         <v>10703000</v>
       </c>
       <c r="E70" s="3">
-        <v>11203000</v>
+        <v>10703000</v>
       </c>
       <c r="F70" s="3">
         <v>11203000</v>
@@ -2902,29 +3069,32 @@
         <v>11203000</v>
       </c>
       <c r="H70" s="3">
+        <v>11203000</v>
+      </c>
+      <c r="I70" s="3">
         <v>11853000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>11203000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>11200000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>9200000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>7200000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>6200000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3100000</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>139372000</v>
+      </c>
+      <c r="E72" s="3">
         <v>131811000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>112947000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>106465000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>100100000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>91519000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>89039000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>83386000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78984000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>71961000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>65223000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>58834000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106486000</v>
+      </c>
+      <c r="E76" s="3">
         <v>99223000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84729000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>79062000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78982000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70390000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75690000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75528000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73597000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71267000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69516000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67279000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10764000</v>
+      </c>
+      <c r="E81" s="3">
         <v>21151000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8915000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7897000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9860000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3685000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7087000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5568000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8077000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7726000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7292000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2510000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2015000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1902000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1704000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1328000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1152000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>998000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>991000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1337000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1322000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>1869000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>921000</v>
+        <v>8708000</v>
       </c>
       <c r="E89" s="3">
-        <v>-13728000</v>
+        <v>6298000</v>
       </c>
       <c r="F89" s="3">
+        <v>-18535000</v>
+      </c>
+      <c r="G89" s="3">
         <v>23868000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16564000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20489000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6494000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9481000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7932000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4543000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12879000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22501000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3748000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4667000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6309000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8443000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7982000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3184000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2865000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1833000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-678000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-706000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-961000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1184000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-75960000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30465000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34356000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24236000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18820000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26377000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9675000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18574000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14909000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8728000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>629000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3682000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2725000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2336000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2104000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1810000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1769000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1706000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1681000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1454000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1302000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1086000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2771000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,71 +4156,77 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>59602000</v>
+      </c>
+      <c r="E100" s="3">
         <v>134738000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>70380000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3367000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22752000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>35206000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12103000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>27507000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18999000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7351000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-6910000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-11561000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-5377000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>4807000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3986,52 +4234,58 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19211000</v>
+      </c>
+      <c r="E102" s="3">
         <v>105194000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22296000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2999000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20496000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11660000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28272000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18414000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3842000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11536000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16661000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16220000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
